--- a/data/input/toxicological_effect_cat_remap_type_dict.xlsx
+++ b/data/input/toxicological_effect_cat_remap_type_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ToxValDB9\Repo\toxvaldbBMDh\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D00A7A8-3AF6-4D65-A79B-B27F914C6908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D921CBBB-6E0A-420F-A453-C52D7C39C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="1590" windowWidth="21420" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="664">
   <si>
     <t>source_hash</t>
   </si>
@@ -2028,6 +2028,9 @@
   </si>
   <si>
     <t>multiple|hematology|nonneoplastic histopathology|organ weight|none</t>
+  </si>
+  <si>
+    <t>ToxValhc_470965f46831b958f3ffeec37f92d6fc</t>
   </si>
 </sst>
 </file>
@@ -2389,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E290"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A289" sqref="A289"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6743,6 +6746,20 @@
         <v>662</v>
       </c>
     </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>663</v>
+      </c>
+      <c r="B291" t="s">
+        <v>547</v>
+      </c>
+      <c r="C291" t="s">
+        <v>206</v>
+      </c>
+      <c r="D291" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E283" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/input/toxicological_effect_cat_remap_type_dict.xlsx
+++ b/data/input/toxicological_effect_cat_remap_type_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ToxValDB9\Repo\toxvaldbBMDh\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D921CBBB-6E0A-420F-A453-C52D7C39C859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D82CEE-8C35-461D-9258-FE337B562DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1590" windowWidth="21420" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="894">
   <si>
     <t>source_hash</t>
   </si>
@@ -2031,6 +2031,696 @@
   </si>
   <si>
     <t>ToxValhc_470965f46831b958f3ffeec37f92d6fc</t>
+  </si>
+  <si>
+    <t>ToxValhc_d3a9f65e69fb7f93ab5e2af97b4d65fb</t>
+  </si>
+  <si>
+    <t>Body Weight Changes: Weight gain decrease |Food Consumption: decrease |Blood Chemistry: T-Cho decrease TG decrease ALP increase Ch E decrease (Brain Ch E decrease )|Absolute Organ Weight: Adrenal increase Liver increase Kidney increase|Relative Organ Weight: Adrenal increase Liver increase Kidney increase|Histopathology: Kidney-Degeneration, tubule Kidney-Hyaline droplet, tubule Kidney-Calcium deposition, tubule Kidney-Cell infiltration, interstitium Adrenal-Vacuolization, cortex Adrenal-Swelling, cortex</t>
+  </si>
+  <si>
+    <t>body weight|food and/or water consumption|multiple|organ weight|nonneoplastic histopathology</t>
+  </si>
+  <si>
+    <t>ToxValhc_d05455656988cd1c06588e47148722c8</t>
+  </si>
+  <si>
+    <t>Body Weight: Weight gain decrease|Food Consumption: decrease|Blood Chemistry: GPT increase, ALP increase, Ch-E increase, A/G decrease, Cl decrease</t>
+  </si>
+  <si>
+    <t>multiple|body weight|food and/or water consumption</t>
+  </si>
+  <si>
+    <t>ToxValhc_5bf6336280b87ceb4b999f92ae4bccf8</t>
+  </si>
+  <si>
+    <t>Clinical Observation: Abnormal respiratory sound Ptosis Reddened scrotum Testicular descent Soiled fur, Abdomen Lacrimation|Body Weight Changes: decrease|Food Consumption: decrease|Water Consumption: decrease|Urinalysis: pH decrease, Na increase|Blood Chemistry: TG decrease, ALP increase, Ch E increase, TP decrease|Absolute Organ Weight: Prostate decrease, Pituitary decrease, Heart decrease, Liver decrease, Spleen decrease, Adrenal decrease, Cecum increase|Relative Organ Weight: Prostate decrease, Pituitary decrease, Heart decrease, Liver decrease, Spleen decrease, Adrenal decrease, Cecum increase|Necropsy: Eyelid-Smudge Nose-Smudge, around the nose a|'a%oSe-Genital region-Smudge Cecum-Swelling Prostate-Atrophy|Histopathology: Prostate-Decrease of secretion, gland Uterus-Atrophy</t>
+  </si>
+  <si>
+    <t>clinical signs|body weight|food and/or water consumption|urinalysis|multiple|organ weight|gross pathology|nonneoplastic histopathology</t>
+  </si>
+  <si>
+    <t>ToxValhc_4d9a086d221a3c28cb2e76bb7486c907</t>
+  </si>
+  <si>
+    <t>Deaths|Clinical Observation: Nasal noise Diarrhea|Body Weight Changes: Weight gain decrease|Food Consumption: decrease|Water Consumption: increase|Hematology: MCV decrease, MCHC increase, WBC increase|Blood Chemistry: Glu decrease, IP increase, gamma-GTP increase, ChE decrease|Absolute Organ Weight: Thymus decrease|Relative Organ Weight: Thymus decrease, Kidney increase, Testis increase|Histopathology: Kidney-Epithelial vacuolization Stomach-Hyperplasia, forestomach Stomach-Hyperkeratosis, forestomach</t>
+  </si>
+  <si>
+    <t>ToxValhc_ade89e7e24ca1ad4a47530b564a193c2</t>
+  </si>
+  <si>
+    <t>Decreased body weight, decreased spermatogenesis, and histological evidence of hyperthyroidism</t>
+  </si>
+  <si>
+    <t>ToxValhc_d56905ef7adb6bab0ed16d1802134658</t>
+  </si>
+  <si>
+    <t>Decreased bodyweight &amp; feed consumption</t>
+  </si>
+  <si>
+    <t>ToxValhc_8f09231ff1f6f7d635a51321295f3ddb</t>
+  </si>
+  <si>
+    <t>Decreased bodyweight gains &amp; peripheral redness</t>
+  </si>
+  <si>
+    <t>ToxValhc_f14c9ea432d033fc5d9d732f12162c84, ToxValhc_941595da31a1b2652befff7d82f559a6</t>
+  </si>
+  <si>
+    <t>Decreased weight gain in males and neurologic findings in both sexes</t>
+  </si>
+  <si>
+    <t>0226920fa7bbf3f9fb86a176910aaaff</t>
+  </si>
+  <si>
+    <t>Development: Slowed, Retarded, Delayed or Non-development|Development: Weight|Multiple: Multiple effects reported as one result</t>
+  </si>
+  <si>
+    <t>5255effea65fd5620dc11ee335ba6d5b</t>
+  </si>
+  <si>
+    <t>Development: Teratogenic measurements|Multiple: Multiple effects reported as one result|Reproduction: Reproduction, general</t>
+  </si>
+  <si>
+    <t>development|multiple|reproduction</t>
+  </si>
+  <si>
+    <t>f9b6d5e5d3d8dc1ca43e57c0e2f56370</t>
+  </si>
+  <si>
+    <t>Feeding behavior: Food consumption|Multiple: Multiple effects reported as one result</t>
+  </si>
+  <si>
+    <t>food and/or water consumption|multiple</t>
+  </si>
+  <si>
+    <t>5b784b78548065d48369cff19a7628b4, 7baf3f2fc8ae9abae31e532eeade8b92</t>
+  </si>
+  <si>
+    <t>Growth: Weight gain|Multiple: Multiple effects reported as one result</t>
+  </si>
+  <si>
+    <t>ToxValhc_7ae455bde7262d286883429b29992498</t>
+  </si>
+  <si>
+    <t>Liver cytomegaly, fatty metamorphosis, angiectasis|thyroid cystic follicles</t>
+  </si>
+  <si>
+    <t>ToxValhc_8c5d1ac8cf91fd7a46feebdb91719e29</t>
+  </si>
+  <si>
+    <t>Liver effects and inhibition of brain acetylcholinesterase activity</t>
+  </si>
+  <si>
+    <t>ToxValhc_b5fd70ebc338e23c79d5516dbb63ed30</t>
+  </si>
+  <si>
+    <t>Male reproductive toxicity and other effects (including decreased body weight gain), increased liver and kidney weights</t>
+  </si>
+  <si>
+    <t>94df514b6b82a2d71873bc9f784d808c, b11d08324880b94b67f1189007cabdb5</t>
+  </si>
+  <si>
+    <t>Morphology: Organ weight in relationship to body weight|Multiple: Multiple effects reported as one result</t>
+  </si>
+  <si>
+    <t>multiple|organ weight</t>
+  </si>
+  <si>
+    <t>454a14386f4b1b20be2e7cccefdc06b3, 9a8551c2b5bacf20223b5faafaf68784</t>
+  </si>
+  <si>
+    <t>c4e60ab5e5fed97af9d0959225292815</t>
+  </si>
+  <si>
+    <t>e380bacdd0a5869d99b29f6082f17b03, 7d70a956dea258ddce2a3df4be94b0d4</t>
+  </si>
+  <si>
+    <t>304bc5b2e5ecda9df84c37509f1750cd, 0e8670428d2182c75b7cf6d51188ad82</t>
+  </si>
+  <si>
+    <t>ToxValhc_c858296d2d65e19f42b837e7c8d7e8eb</t>
+  </si>
+  <si>
+    <t>Neurological effects (mydriasis) and retardation of weight gain in a 14-week dog study</t>
+  </si>
+  <si>
+    <t>ToxValhc_131cc51b20f35d479ae6a7b2e4b677cc</t>
+  </si>
+  <si>
+    <t>RBC, ChE inhibition|reduced hemoglobin, hematocrit and RBCs</t>
+  </si>
+  <si>
+    <t>ToxValhc_36dfa1007d1e33cba7dc0c8c43191a4c</t>
+  </si>
+  <si>
+    <t>Tonic-clonic seizures, histopathological effects on lungs, liver, non-glandular stomach, intestines and urinary tract.</t>
+  </si>
+  <si>
+    <t>ToxValhc_0b349d9dbfb33477237eb78547d2cfc5</t>
+  </si>
+  <si>
+    <t>cholinergic symptoms and rbd cholinesterase inhibition</t>
+  </si>
+  <si>
+    <t>ToxValhc_5d8b6085d7383b8cce3b05e38fba445d</t>
+  </si>
+  <si>
+    <t>cholinesterase inhibition, cholinergic symptoms, and increased liver weight</t>
+  </si>
+  <si>
+    <t>ToxValhc_91046439dff9cf6893b9337f2a2d1ec6, ToxValhc_db0d0ffd1781cd384c3b0bda4b243f7a</t>
+  </si>
+  <si>
+    <t>cholinesterase inhibition, optic nerve degeneration</t>
+  </si>
+  <si>
+    <t>ToxValhc_80181bd28247ae774e9bd9d85d5bd9d5</t>
+  </si>
+  <si>
+    <t>decreased body weight gain increased plantar ulcer (females)</t>
+  </si>
+  <si>
+    <t>ToxValhc_c77db7fb733d439caafd2138b62a84cf</t>
+  </si>
+  <si>
+    <t>histological lesions in liver, occasional convulsions</t>
+  </si>
+  <si>
+    <t>ToxValhc_0ef0a719738c3e732783c845999e00b1</t>
+  </si>
+  <si>
+    <t>histopathological changes in kidneys and testes of males|Salivation, increased ALT and ornithine carbamyl transferase|significant increases in triglyceride and decreased blood glucose levels</t>
+  </si>
+  <si>
+    <t>ToxValhc_5f4eb4666aeacf6a9c200dbc6257fde7</t>
+  </si>
+  <si>
+    <t>hypertrophy of adrenal cortex (both sexes) hematological effects (males)</t>
+  </si>
+  <si>
+    <t>ToxValhc_0544c7a977cd15088bd7855690f34d67</t>
+  </si>
+  <si>
+    <t>immunological, neurological</t>
+  </si>
+  <si>
+    <t>other|clinical signs|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_81141af9ac42e7e484f18a4b17afeba1</t>
+  </si>
+  <si>
+    <t>increased absolute liver weight and nonneoplastic lesions</t>
+  </si>
+  <si>
+    <t>ToxValhc_f55e47346fa9b415b1e010f3be88066e</t>
+  </si>
+  <si>
+    <t>increased hemosiderin deposition, serum alkaline phosphatase, and liver weight (females)</t>
+  </si>
+  <si>
+    <t>ToxValhc_7e193a7ee9b059e0fb772a00c712ed6f</t>
+  </si>
+  <si>
+    <t>increased incidence of marked progressive glomerulonephrosis and blood vessel aneurysms in males|Reduced body weight gain in males and females</t>
+  </si>
+  <si>
+    <t>ToxValhc_083fae8eff85e2a9dd1985faa0bfd038</t>
+  </si>
+  <si>
+    <t>increased levels of serum proteins and increased liver weight</t>
+  </si>
+  <si>
+    <t>ToxValhc_aa23a00155037aac7cf6a36756acf9d1</t>
+  </si>
+  <si>
+    <t>increased liver weight, serum cholesterol, hepatic aminopyrine n-demethylase activity, and alanine transaminase levels</t>
+  </si>
+  <si>
+    <t>ToxValhc_cdc710c54fd669275684347de7ff0a7a</t>
+  </si>
+  <si>
+    <t>increased sap and liver weight, liver histopathology</t>
+  </si>
+  <si>
+    <t>ToxValhc_e9e343369b4a906fdc79adf33e70dc5c</t>
+  </si>
+  <si>
+    <t>increased serum alkaline phosphatase and liver weight, and hepatic lesions</t>
+  </si>
+  <si>
+    <t>ToxValhc_71a7c62649e4daf5e370025daa6f12c0</t>
+  </si>
+  <si>
+    <t>increased serum alkaline phosphatase levels and increased liver-to-brain weight ratio</t>
+  </si>
+  <si>
+    <t>ToxValhc_2bf5d10a90aa281d581152367bd231c3</t>
+  </si>
+  <si>
+    <t>increased serum bilirubin and aspartate aminotransferase, increased urinary volume</t>
+  </si>
+  <si>
+    <t>ToxValhc_86ac365c51865e2791034890edd5be4e</t>
+  </si>
+  <si>
+    <t>increased serum cholesterol, alkaline phosphatase, and relative liver and kidney weight, and decreased alanine transaminase and adrenal weight</t>
+  </si>
+  <si>
+    <t>ToxValhc_280e8253cc13cf8f7362eba686529412</t>
+  </si>
+  <si>
+    <t>increased wbc, decreased rbc (females), increased alkaline phosphatase (males)</t>
+  </si>
+  <si>
+    <t>ToxValhc_3828ea675b3aa7922cf0b8747c2b4c98</t>
+  </si>
+  <si>
+    <t>internal hemorrhage, mortality</t>
+  </si>
+  <si>
+    <t>ToxValhc_64e7dc584d0b8d86ff712137260c268f</t>
+  </si>
+  <si>
+    <t>liver and kidney effects, reduced body weight, mortality</t>
+  </si>
+  <si>
+    <t>ToxValhc_a5d56bb0d2ae78444d25f1adb41f67e1</t>
+  </si>
+  <si>
+    <t>lungs, liver, kidney, thyroid and thyroid hormones</t>
+  </si>
+  <si>
+    <t>ToxValhc_335a2b1ba0c6f942f515527073f2a7d6</t>
+  </si>
+  <si>
+    <t>mortality: Abnormality of the urinary system</t>
+  </si>
+  <si>
+    <t>ToxValhc_846966a1ab9455804db773820ce9f344</t>
+  </si>
+  <si>
+    <t>neurological, hepatic</t>
+  </si>
+  <si>
+    <t>clinical signs|other|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_5ce137b5f0cd01dc3532100b01633c00</t>
+  </si>
+  <si>
+    <t>neurological, reproductive</t>
+  </si>
+  <si>
+    <t>clinical signs|reproduction|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_19cd371026d21095caa6a7c9cea4be18, ToxValhc_ff2a38cfe8e15080ead4dc44fce7ad9e</t>
+  </si>
+  <si>
+    <t>pancreas|pancreas: body weight and weight gain|clinical biochemistry|histopathology: non-neoplastic|organ weights and organ / body weight ratios</t>
+  </si>
+  <si>
+    <t>clinical chemistry|nonneoplastic histopathology|organ weight|multiple|nonneoplastic histopathology</t>
+  </si>
+  <si>
+    <t>ToxValhc_cb028ae7baed833edad5374dee7ac317</t>
+  </si>
+  <si>
+    <t>reduced body weight (males), inflammatory foci in kidneys of females</t>
+  </si>
+  <si>
+    <t>ToxValhc_c84304a2ccaf290b134858f390d6d31c</t>
+  </si>
+  <si>
+    <t>reduced body weight (males), liver cell vacuolation, cholinesterase inhibition</t>
+  </si>
+  <si>
+    <t>ToxValhc_2194d6aadd35eb905f3c04d686b1eb07</t>
+  </si>
+  <si>
+    <t>reduced body weight gain (males) and females increased incidence of marked progressive glomerulonephrosis and blood vessel aneurysms (males)</t>
+  </si>
+  <si>
+    <t>ToxValhc_b0f356542a942467b1033af44860b32e</t>
+  </si>
+  <si>
+    <t>reduced body weight gain (males) increased food and water consumption (males) and females</t>
+  </si>
+  <si>
+    <t>ToxValhc_b9127f3036b628c81c70b5fa2e02a91a</t>
+  </si>
+  <si>
+    <t>reduced body weight gain (males), reduced serum sodium (males) and females</t>
+  </si>
+  <si>
+    <t>ToxValhc_882e4a15305a4f3637e733dc3c366c3b</t>
+  </si>
+  <si>
+    <t>reduced body weight gain and food consumption</t>
+  </si>
+  <si>
+    <t>ToxValhc_b95efed0b353fe074c283cbb27aca649</t>
+  </si>
+  <si>
+    <t>reduced body weight gain, erythrocyte count and hemoglobin level</t>
+  </si>
+  <si>
+    <t>ToxValhc_1b1635bd71091472db2345c53c9d9727</t>
+  </si>
+  <si>
+    <t>reduced body weight gain, increased liver and kidney weight, and rbc cholinesterase inhibition</t>
+  </si>
+  <si>
+    <t>ToxValhc_23117f6137cee3069e001017e80e6202</t>
+  </si>
+  <si>
+    <t>reduced body weight gain, skeletal myopathy, slight anemia, bone marrow hyperplasia, increased serum sgot, sgpt, cpk</t>
+  </si>
+  <si>
+    <t>ToxValhc_4a5939f4f8b7eca00a9c09d3723a5d86</t>
+  </si>
+  <si>
+    <t>reduced body weight, increased bun</t>
+  </si>
+  <si>
+    <t>ToxValhc_98b97eb4a8760972d1d6f359e3c477d7</t>
+  </si>
+  <si>
+    <t>reduced hemoglobin concentration, lowered hematocrits, altered organ weight</t>
+  </si>
+  <si>
+    <t>ToxValhc_f89080f9470e217f087f9081f09c7bc7</t>
+  </si>
+  <si>
+    <t>reduced rbc and plasma cholinesterase activity</t>
+  </si>
+  <si>
+    <t>ToxValhc_f110bbc99a1293fcd12c297b10a0d5fd</t>
+  </si>
+  <si>
+    <t>reduced weight gain, food consumption increased relative liver weight</t>
+  </si>
+  <si>
+    <t>ToxValhc_8acfa0dab54e1ce9f60327c47ef17028, ToxValhc_c075a1825d14422145777823df755584</t>
+  </si>
+  <si>
+    <t>reduced weight gain, organ weight changes, increased mortality</t>
+  </si>
+  <si>
+    <t>ToxValhc_2534987149362cb4ad55f4fab3f53c20</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-aminopyrine-n-demethylase-aminopyrine-n-demethylase|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: clinical chemistry-alkaline phosphatase (alp/alk)-alkaline phosphatase (alp/alk)|systemic: in life observation-clinical signs-emaciation</t>
+  </si>
+  <si>
+    <t>clinical chemistry|multiple|clinical signs</t>
+  </si>
+  <si>
+    <t>ToxValhc_c00758429151b62628f0d6d92410ec61</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-calcium-calcium|systemic: in life observation-body weight-body weight gain|systemic: pathology microscopic-liver-[other]|systemic: clinical chemistry-globulins-globulins|systemic: pathology gross-liver-enlarged|systemic: hematology-platelet-platelet|systemic: clinical chemistry-protein-protein|systemic: pathology gross-liver-accentuated lobular pattern|systemic: pathology microscopic-liver-eosinophilic focus|systemic: in life observation-food consumption-food efficiency|systemic: clinical chemistry-cholesterol-cholesterol|systemic: organ weight-liver-relative to body weight|systemic: clinical chemistry-alanine aminotransferase (alt/sgpt)-alanine aminotransferase (alt/sgpt)|systemic: organ weight-liver-absolute|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: clinical chemistry-albumin-albumin|systemic: clinical chemistry-alkaline phosphatase (alp/alk)-alkaline phosphatase (alp/alk)</t>
+  </si>
+  <si>
+    <t>clinical chemistry|body weight|nonneoplastic histopathology|gross pathology|hematology|food and/or water consumption|organ weight|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_2d27de03aaa68cb7810554a415a0856f</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-cholesterol-cholesterol|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos</t>
+  </si>
+  <si>
+    <t>clinical chemistry|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_c9390dea314ae71fef74d87c39385974</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-cholesterol-cholesterol|systemic: pathology microscopic-tongue-hyperkeratosis|systemic: pathology microscopic-esophagus-hypertrophy|systemic: clinical chemistry-aspartate aminotransferase (ast/sgot)-aspartate aminotransferase (ast/sgot)|systemic: pathology microscopic-stomach-hyperkeratosis|systemic: in life observation-body weight-body weight|systemic: clinical chemistry-alanine aminotransferase (alt/sgpt)-alanine aminotransferase (alt/sgpt)|systemic: pathology microscopic-liver-hyalinization|systemic: clinical chemistry-alkaline phosphatase (alp/alk)-alkaline phosphatase (alp/alk)|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: pathology microscopic-urinary bladder-hyperplasia|systemic: pathology microscopic-esophagus-hyperplasia|systemic: in life observation-body weight-body weight gain|systemic: pathology microscopic-esophagus-hyperkeratosis</t>
+  </si>
+  <si>
+    <t>clinical chemistry|nonneoplastic histopathology|body weight|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_5adaa96ca62511ac34be012a85d02e25</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos</t>
+  </si>
+  <si>
+    <t>ToxValhc_8d7fd5e5c5955e465bce4ce2ecaee3e9</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: clinical chemistry-aminopyrine-n-demethylase-aminopyrine-n-demethylase</t>
+  </si>
+  <si>
+    <t>ToxValhc_5c53abc39dce4d8712d32c350ac4e9d8</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: clinical chemistry-o-demethylase-o-demethylase|systemic: clinical chemistry-[other]-[other]|systemic: in life observation-food consumption-food consumption</t>
+  </si>
+  <si>
+    <t>multiple|enzyme activity|clinical chemistry|food and/or water consumption</t>
+  </si>
+  <si>
+    <t>ToxValhc_8db4207baecd30381c514b347fbe0b9f</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: pathology microscopic-liver-clear cell focus|systemic: pathology gross-liver-discolored|systemic: organ weight-liver-relative to body weight|systemic: organ weight-liver-absolute|systemic: pathology microscopic-liver-[other]|systemic: pathology microscopic-liver-inflammation</t>
+  </si>
+  <si>
+    <t>multiple|nonneoplastic histopathology|gross pathology|organ weight</t>
+  </si>
+  <si>
+    <t>ToxValhc_74130bb6f1c8a5974dd9e9f35823e2e3</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-epoxide hydrolase-epoxide hydrolase|systemic: clinical chemistry-triiodothyronine (t3)-triiodothyronine (t3), total|systemic: pathology microscopic-liver-[other]|systemic: clinical chemistry-o-demethylase-o-demethylase|systemic: clinical chemistry-testosterone-testosterone|systemic: clinical chemistry-protein-protein|systemic: clinical chemistry-androstenedione-androstenedione|systemic: clinical chemistry-glutathione-s-transferase-glutathione-s-transferase|systemic: in life observation-body weight-body weight gain|systemic: clinical chemistry-alderin epoxidase-alderin epoxidase|systemic: clinical chemistry-alkaline phosphatase (alp/alk)-alkaline phosphatase (alp/alk)|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: pathology microscopic-liver-cytomegaly|systemic: hematology-[other]-[other]|systemic: organ weight-liver-absolute|systemic: organ weight-kidney-relative to body weight|systemic: organ weight-liver-relative to body weight|systemic: clinical chemistry-albumin-albumin|systemic: in life observation-food consumption-food efficiency|systemic: clinical chemistry-cholesterol-cholesterol|systemic: clinical chemistry-ethoxycoumarin deethylase-ethoxycoumarin deethylase|systemic: clinical chemistry-thyroid stimulating hormone (thyrotropin) (tsh)-thyroid stimulating hormone (=thyrotropin) (tsh)|systemic: pathology microscopic-liver-cytoplasmic alteration|systemic: clinical chemistry-udp-glucuronyl transferase-udp-glucuronyl transferase</t>
+  </si>
+  <si>
+    <t>clinical chemistry|nonneoplastic histopathology|enzyme activity|body weight|multiple|hematology|organ weight|food and/or water consumption</t>
+  </si>
+  <si>
+    <t>ToxValhc_2a510b7c6d5b890896e76c29f7fb2336</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-ethoxycoumarin deethylase-ethoxycoumarin deethylase|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: organ weight-liver-absolute|systemic: in life observation-food consumption-food efficiency|systemic: organ weight-kidney-relative to body weight|systemic: clinical chemistry-alderin epoxidase-alderin epoxidase|systemic: pathology microscopic-kidney-degeneration|systemic: pathology microscopic-liver-cytomegaly|systemic: clinical chemistry-o-demethylase-o-demethylase|systemic: clinical chemistry-udp-glucuronyl transferase-udp-glucuronyl transferase|systemic: hematology-[other]-[other]|systemic: clinical chemistry-alkaline phosphatase (alp/alk)-alkaline phosphatase (alp/alk)|systemic: organ weight-epididymis-relative to body weight|systemic: organ weight-liver-relative to body weight|systemic: clinical chemistry-cholesterol-cholesterol|systemic: clinical chemistry-albumin-albumin|systemic: clinical chemistry-glutathione-s-transferase-glutathione-s-transferase|systemic: pathology microscopic-liver-cytoplasmic alteration|systemic: clinical chemistry-thyroid stimulating hormone (thyrotropin) (tsh)-thyroid stimulating hormone (=thyrotropin) (tsh)|systemic: pathology microscopic-liver-[other]|systemic: organ weight-kidney-absolute|systemic: clinical chemistry-testosterone-testosterone|systemic: in life observation-body weight-body weight gain|systemic: clinical chemistry-triiodothyronine (t3)-triiodothyronine (t3), total|systemic: organ weight-epididymis-absolute|systemic: clinical chemistry-epoxide hydrolase-epoxide hydrolase</t>
+  </si>
+  <si>
+    <t>enzyme activity|multiple|organ weight|food and/or water consumption|nonneoplastic histopathology|clinical chemistry|hematology|body weight</t>
+  </si>
+  <si>
+    <t>ToxValhc_546b0e7b441ddce1932284e46a320c67</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-globulins-globulins|systemic: in life observation-body weight-body weight gain|systemic: organ weight-liver-relative to body weight|systemic: clinical chemistry-cholesterol-cholesterol|systemic: hematology-platelet-platelet|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: in life observation-food consumption-food consumption|systemic: clinical chemistry-triglycerides-triglycerides|systemic: clinical chemistry-protein-protein|systemic: in life observation-food consumption-food efficiency|systemic: pathology microscopic-liver-eosinophilic focus|systemic: clinical chemistry-albumin-albumin|systemic: organ weight-liver-absolute|systemic: clinical chemistry-glutathione-s-transferase-glutathione-s-transferase|systemic: clinical chemistry-alkaline phosphatase (alp/alk)-alkaline phosphatase (alp/alk)|systemic: in life observation-clinical signs-lethargy|systemic: clinical chemistry-calcium-calcium</t>
+  </si>
+  <si>
+    <t>clinical chemistry|body weight|organ weight|hematology|multiple|food and/or water consumption|nonneoplastic histopathology|clinical signs</t>
+  </si>
+  <si>
+    <t>ToxValhc_c588b90dd137b3095a0a1209fd1505ce</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-protein-protein|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: clinical chemistry-o-demethylase-o-demethylase|systemic: organ weight-liver-absolute|systemic: clinical chemistry-cholesterol-cholesterol|systemic: clinical chemistry-[other]-[other]|systemic: in life observation-body weight-body weight gain|systemic: organ weight-adrenal gland-absolute|systemic: in life observation-body weight-body weight|systemic: organ weight-liver-relative to body weight|systemic: pathology microscopic-liver-hypertrophy</t>
+  </si>
+  <si>
+    <t>clinical chemistry|multiple|enzyme activity|organ weight|body weight|nonneoplastic histopathology</t>
+  </si>
+  <si>
+    <t>ToxValhc_fda96b48776c99ee416bc96173578827</t>
+  </si>
+  <si>
+    <t>systemic: clinical chemistry-triiodothyronine (t3)-triiodothyronine (t3), total|systemic: hematology-hematocrit (hct)-hematocrit (hct)|systemic: pathology microscopic-kidney-pigmentation|systemic: pathology microscopic-kidney-nephropathy|systemic: hematology-hemoglobin (hgb)-hemoglobin (hgb)|systemic: pathology microscopic-thyroid gland-adenoma|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: pathology microscopic-liver-pigmentation|systemic: pathology microscopic-thyroid gland-adenoma/carcinoma combined|systemic: pathology microscopic-lung-thrombosis|systemic: hematology-mean corpuscular (cell) volume (mcv)-mean corpuscular (cell) volume (mcv)|systemic: in life observation-mortality-mortality|systemic: pathology gross-liver-discolored|systemic: hematology-anemia-anemia - microcytic|systemic: hematology-mean corpuscular hemoglobin concentration (mchc)-mean corpuscular hemoglobin concentration (mchc)|systemic: pathology microscopic-lymph node-erythrophagocytosis|systemic: hematology-[other]-[other]</t>
+  </si>
+  <si>
+    <t>clinical chemistry|hematology|nonneoplastic histopathology|cancer|multiple|mortality/survival|gross pathology</t>
+  </si>
+  <si>
+    <t>ToxValhc_934f8bf681e3c796da2f8f7e18ced99f</t>
+  </si>
+  <si>
+    <t>systemic: hematology-[other]-[other]|systemic: hematology-anemia-anemia - microcytic|systemic: organ weight-liver-relative to brain weight|systemic: in life observation-mortality-mortality|systemic: pathology microscopic-liver-pigmentation|systemic: pathology microscopic-liver-multinucleated|systemic: pathology microscopic-kidney-pigmentation|systemic: hematology-hemoglobin (hgb)-hemoglobin (hgb)|systemic: pathology microscopic-bone marrow-hyperplasia|systemic: pathology microscopic-liver-inflammation|systemic: hematology-methemoglobin-methemoglobin|systemic: hematology-hematocrit (hct)-hematocrit (hct)|systemic: hematology-reticulocyte-reticulocyte|systemic: hematology-erythrocyte (rbc) count differential-erythrocyte (rbc)|systemic: hematology-mean corpuscular (cell) volume (mcv)-mean corpuscular (cell) volume (mcv)|systemic: organ weight-liver-absolute|systemic: pathology microscopic-liver-cytomegaly|systemic: organ weight-liver-relative to body weight|systemic: hematology-mean corpuscular hemoglobin concentration (mchc)-mean corpuscular hemoglobin concentration (mchc)|systemic: pathology microscopic-kidney-hydronephrosis|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos</t>
+  </si>
+  <si>
+    <t>hematology|organ weight|mortality/survival|nonneoplastic histopathology|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_110a9b213f7717698889008648087d17</t>
+  </si>
+  <si>
+    <t>systemic: hematology-erythrocyte (rbc) count differential-erythrocyte (rbc)|systemic: organ weight-liver-relative to body weight|systemic: hematology-eosinophils-eosinophils|systemic: hematology-mean corpuscular (cell) volume (mcv)-mean corpuscular (cell) volume (mcv)|systemic: hematology-leukocyte (wbc) count differential-leukocyte (wbc)|systemic: hematology-platelet-platelet|systemic: organ weight-liver-absolute|systemic: pathology microscopic-liver-necrosis|systemic: pathology microscopic-liver-pigmentation|systemic: hematology-anemia-anemia - hemolytic|systemic: hematology-neutrophils-neutrophils|systemic: clinical chemistry-cytochrome p450, nos-peroxisomal beta-oxidation analysis|systemic: pathology microscopic-spleen-[other]|systemic: pathology microscopic-spleen-hemosiderosis|systemic: organ weight-spleen-absolute|systemic: hematology-hemoglobin (hgb)-hemoglobin (hgb)|systemic: hematology-reticulocyte-reticulocyte|systemic: organ weight-spleen-relative to body weight|systemic: hematology-lymphocyte-lymphocyte|systemic: pathology microscopic-liver-atrophy|systemic: hematology-mean corpuscular hemoglobin concentration (mchc)-mean corpuscular hemoglobin concentration (mchc)|systemic: hematology-mean corpuscular hemoglobin (mch)-mean corpuscular hemoglobin (mch)|systemic: pathology microscopic-liver-fatty change|systemic: clinical chemistry-peroxisomal beta-oxidation analysis-peroxisomal beta-oxidation analysis|systemic: pathology microscopic-liver-hypertrophy|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos</t>
+  </si>
+  <si>
+    <t>hematology|organ weight|nonneoplastic histopathology|enzyme activity|other|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_96d9cd4693c412ce2099ae8ca22a659c</t>
+  </si>
+  <si>
+    <t>systemic: hematology-hemoglobin (hgb)-hemoglobin (hgb)|systemic: clinical chemistry-protein-protein|systemic: clinical chemistry-urea nitrogen-urea|systemic: in life observation-clinical signs-lack of coordination|systemic: in life observation-water consumption-water consumption|systemic: hematology-hematocrit (hct)-hematocrit (hct)|systemic: in life observation-clinical signs-poor general condition|systemic: organ weight-lung-relative to body weight|systemic: in life observation-mortality-mortality|systemic: in life observation-clinical signs-scabbing|systemic: clinical chemistry-chloride-chloride|systemic: in life observation-clinical signs-abnormal gait|systemic: in life observation-body weight-body weight gain|systemic: clinical chemistry-triglycerides-triglycerides|systemic: hematology-mean corpuscular hemoglobin concentration (mchc)-mean corpuscular hemoglobin concentration (mchc)|systemic: clinical chemistry-phosphorus-phosphorus|systemic: organ weight-kidney-relative to body weight|systemic: in life observation-body weight-body weight|systemic: organ weight-heart-relative to body weight|systemic: in life observation-clinical signs-necrosis|systemic: clinical chemistry-sodium-sodium|systemic: organ weight-liver-relative to body weight|systemic: clinical chemistry-alkaline phosphatase (alp/alk)-alkaline phosphatase (alp/alk)|systemic: organ weight-lung-nos|systemic: pathology microscopic-liver-lymphoid aggregation</t>
+  </si>
+  <si>
+    <t>hematology|clinical chemistry|clinical signs|food and/or water consumption|organ weight|mortality/survival|body weight|multiple|nonneoplastic histopathology</t>
+  </si>
+  <si>
+    <t>ToxValhc_d2bd971e2f4589599f6be1d6eff1ff52</t>
+  </si>
+  <si>
+    <t>systemic: hematology-mean corpuscular hemoglobin concentration (mchc)-mean corpuscular hemoglobin concentration (mchc)|systemic: hematology-reticulocyte-reticulocyte|systemic: organ weight-liver-relative to body weight|systemic: hematology-anemia-anemia - hemolytic|systemic: organ weight-spleen-relative to body weight|systemic: hematology-mean corpuscular (cell) volume (mcv)-mean corpuscular (cell) volume (mcv)|systemic: hematology-platelet-platelet|systemic: pathology microscopic-spleen-[other]|systemic: organ weight-spleen-absolute|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: pathology microscopic-liver-hypertrophy|systemic: hematology-mean corpuscular hemoglobin (mch)-mean corpuscular hemoglobin (mch)|systemic: pathology microscopic-liver-pigmentation|systemic: clinical chemistry-peroxisomal beta-oxidation analysis-peroxisomal beta-oxidation analysis|systemic: pathology microscopic-liver-fatty change|systemic: hematology-hemoglobin (hgb)-hemoglobin (hgb)|systemic: organ weight-liver-absolute|systemic: pathology microscopic-spleen-hemosiderosis|systemic: clinical chemistry-cytochrome p450, nos-peroxisomal beta-oxidation analysis|systemic: pathology microscopic-liver-necrosis</t>
+  </si>
+  <si>
+    <t>hematology|organ weight|nonneoplastic histopathology|multiple|other|enzyme activity</t>
+  </si>
+  <si>
+    <t>ToxValhc_eadcd2e68e7255a55258207ec2787389</t>
+  </si>
+  <si>
+    <t>systemic: hematology-neutrophils-neutrophils|systemic: pathology gross-kidney-reduced size|systemic: hematology-hematocrit (hct)-hematocrit (hct)|systemic: pathology microscopic-blood-hypochromasia|systemic: in life observation-clinical signs-perineal soiling|systemic: in life observation-clinical signs-minimal body fat|systemic: in life observation-clinical signs-necrosis|systemic: urinalysis-protein-protein|systemic: pathology microscopic-thyroid gland-adenoma|systemic: hematology-leukocyte (wbc) count differential-leukocyte (wbc)|systemic: pathology gross-kidney-irregular surface|systemic: pathology microscopic-kidney-necrosis|systemic: organ weight-kidney-absolute|systemic: clinical chemistry-urea nitrogen-urea nitrogen|systemic: in life observation-body weight-body weight|systemic: in life observation-body weight-body weight gain|systemic: hematology-hemoglobin (hgb)-hemoglobin (hgb)|systemic: hematology-erythrocyte (rbc) count differential-erythrocyte (rbc)|systemic: pathology microscopic-kidney-hyperplasia|systemic: organ weight-kidney-relative to body weight|systemic: pathology gross-stomach-ulcer|systemic: urinalysis-ketones-ketones|systemic: clinical chemistry-cholesterol-cholesterol|systemic: pathology gross-full gross necropsy-atrophy|systemic: in life observation-mortality-mortality|systemic: urinalysis-ph-ph|systemic: hematology-nucleated red blood cell (nrbc)-nucleated red blood cell (nrbc)|systemic: urinalysis-specific gravity/osmolality-specific gravity/osmolality|systemic: pathology microscopic-kidney-nephropathy|systemic: clinical chemistry-triglycerides-triglycerides|systemic: pathology microscopic-blood-polychromasia</t>
+  </si>
+  <si>
+    <t>hematology|gross pathology|nonneoplastic histopathology|clinical signs|multiple|urinalysis|cancer|organ weight|clinical chemistry|body weight|mortality/survival</t>
+  </si>
+  <si>
+    <t>ToxValhc_6c456f6f046062952f57d76b2bb0ae3e</t>
+  </si>
+  <si>
+    <t>systemic: in life observation-body weight-body weight gain|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: organ weight-liver-relative to body weight|systemic: in life observation-body weight-body weight|systemic: pathology microscopic-liver-hypertrophy|systemic: pathology gross-testes-reduced size|systemic: organ weight-testes-absolute|systemic: pathology microscopic-testes-atrophy|systemic: organ weight-testes-relative to body weight</t>
+  </si>
+  <si>
+    <t>body weight|multiple|organ weight|nonneoplastic histopathology|gross pathology</t>
+  </si>
+  <si>
+    <t>ToxValhc_ad32c03208a1ced6fd838347c2ff48dc</t>
+  </si>
+  <si>
+    <t>systemic: in life observation-body weight-body weight|systemic: organ weight-liver-relative to body weight|systemic: organ weight-brain-relative to body weight|systemic: organ weight-heart-absolute|systemic: organ weight-kidney-relative to body weight|systemic: in life observation-body weight-body weight gain|systemic: clinical chemistry-triglycerides-triglycerides|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: in life observation-clinical signs-grip strength|systemic: organ weight-liver-absolute|systemic: hematology-erythrocyte (rbc) count differential-erythrocyte (rbc)|systemic: organ weight-heart-relative to brain weight|systemic: hematology-reticulocyte-reticulocyte|systemic: organ weight-testes-relative to body weight|systemic: pathology microscopic-liver-hypertrophy|systemic: pathology microscopic-lymph node-hyperplasia|systemic: hematology-hemoglobin (hgb)-hemoglobin (hgb)|systemic: clinical chemistry-potassium-potassium|systemic: hematology-hematocrit (hct)-hematocrit (hct)|systemic: clinical chemistry-peroxisomal beta-oxidation analysis-peroxisomal beta-oxidation analysis|systemic: in life observation-clinical signs-impaired foot spread|systemic: organ weight-brain-absolute</t>
+  </si>
+  <si>
+    <t>body weight|organ weight|clinical chemistry|multiple|neurobehavior|hematology|nonneoplastic histopathology|other|clinical signs</t>
+  </si>
+  <si>
+    <t>ToxValhc_137cce9784038b619c2dcdaf354f8dd6</t>
+  </si>
+  <si>
+    <t>systemic: in life observation-clinical signs-necrosis|systemic: organ weight-liver-nos|systemic: clinical chemistry-triglycerides-triglycerides|systemic: in life observation-mortality-mortality|systemic: hematology-hematocrit (hct)-hematocrit (hct)|systemic: organ weight-heart-nos|systemic: in life observation-clinical signs-abnormal gait|systemic: in life observation-clinical signs-lack of coordination|systemic: clinical chemistry-creatinine-creatinine|systemic: in life observation-body weight-body weight gain|systemic: hematology-hemoglobin (hgb)-hemoglobin (hgb)|systemic: organ weight-kidney-nos|systemic: clinical chemistry-urea nitrogen-urea|systemic: in life observation-clinical signs-scabbing|systemic: in life observation-body weight-body weight|systemic: clinical chemistry-protein-protein|systemic: clinical chemistry-bilirubin-total bilirubin|systemic: in life observation-water consumption-water consumption|systemic: clinical chemistry-sodium-sodium|systemic: hematology-mean corpuscular hemoglobin concentration (mchc)-mean corpuscular hemoglobin concentration (mchc)|systemic: in life observation-clinical signs-poor general condition|systemic: clinical chemistry-phosphorus-phosphorus|systemic: clinical chemistry-chloride-chloride</t>
+  </si>
+  <si>
+    <t>multiple|organ weight|clinical chemistry|mortality/survival|hematology|clinical signs|body weight|food and/or water consumption</t>
+  </si>
+  <si>
+    <t>ToxValhc_7923e0f42a49b1aeb3e5978c1247f66f</t>
+  </si>
+  <si>
+    <t>systemic: in life observation-food consumption-food consumption|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos</t>
+  </si>
+  <si>
+    <t>ToxValhc_a78c6fe220d899fb63a1cb931f3a302b</t>
+  </si>
+  <si>
+    <t>systemic: organ weight-kidney-relative to body weight|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: in life observation-water consumption-water consumption|systemic: pathology microscopic-liver-aminopyrine-n-demethylase (apdm)|systemic: in life observation-body weight-body weight gain|systemic: in life observation-food consumption-food consumption|systemic: organ weight-liver-relative to body weight|systemic: in life observation-food consumption-food efficiency|systemic: clinical chemistry-bilirubin-total bilirubin|systemic: clinical chemistry-cholesterol-cholesterol|systemic: organ weight-kidney-absolute|systemic: organ weight-liver-absolute|systemic: pathology microscopic-liver-hypertrophy|systemic: pathology microscopic-kidney-vacuolization</t>
+  </si>
+  <si>
+    <t>organ weight|multiple|food and/or water consumption|nonneoplastic histopathology|body weight|clinical chemistry</t>
+  </si>
+  <si>
+    <t>ToxValhc_60dc244a0f5ad7deb6a6507f1366b187</t>
+  </si>
+  <si>
+    <t>systemic: organ weight-liver-absolute|systemic: organ weight-liver-relative to body weight|systemic: pathology microscopic-liver-focal cellular change|systemic: pathology microscopic-liver-cellular alteration|systemic: in life observation-body weight-body weight gain|systemic: in life observation-body weight-body weight|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: pathology gross-liver-discolored|systemic: pathology microscopic-liver-adenoma/carcinoma combined</t>
+  </si>
+  <si>
+    <t>organ weight|nonneoplastic histopathology|body weight|multiple|gross pathology|cancer</t>
+  </si>
+  <si>
+    <t>ToxValhc_bf0ab7d0aad12909c4eb0595cd3e5fd2</t>
+  </si>
+  <si>
+    <t>systemic: organ weight-prostate-absolute|systemic: clinical chemistry-alderin epoxidase-alderin epoxidase|systemic: clinical chemistry-cholesterol-cholesterol|systemic: in life observation-body weight-body weight gain|systemic: clinical chemistry-aspartate aminotransferase (ast/sgot)-aspartate aminotransferase (ast/sgot)|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: clinical chemistry-alanine aminotransferase (alt/sgpt)-alanine aminotransferase (alt/sgpt)|systemic: pathology microscopic-prostate-[other]|systemic: pathology microscopic-kidney-dilatation|systemic: pathology microscopic-adrenal gland-vacuolization cytoplasmic|systemic: pathology microscopic-testes-degeneration|systemic: organ weight-adrenal gland-relative to body weight|systemic: clinical chemistry-alkaline phosphatase (alp/alk)-alkaline phosphatase (alp/alk)|systemic: clinical chemistry-o-demethylase-p-nitroanisole-O-demethylase|systemic: organ weight-kidney-relative to body weight|systemic: organ weight-prostate-relative to body weight|systemic: organ weight-liver-relative to body weight|systemic: pathology microscopic-testes-vacuolization|systemic: clinical chemistry-ethoxycoumarin deethylase-ethoxycoumarin deethylase|systemic: pathology microscopic-thymus-atrophy|systemic: pathology microscopic-testes-hypertrophy|systemic: pathology microscopic-epididymis-oligospermia|systemic: pathology microscopic-epididymis-aspermia|systemic: clinical chemistry-aminopyrine-n-demethylase-aminopyrine-n-demethylase|systemic: clinical chemistry-glutamate dehydrogenase-glutamate dehydrogenase|systemic: organ weight-pituitary gland-relative to body weight</t>
+  </si>
+  <si>
+    <t>organ weight|enzyme activity|clinical chemistry|body weight|multiple|nonneoplastic histopathology</t>
+  </si>
+  <si>
+    <t>ToxValhc_8c37e322c6d7c16476cb059757c569ec</t>
+  </si>
+  <si>
+    <t>systemic: organ weight-thyroid gland-absolute|systemic: pathology microscopic-liver-hypertrophy|systemic: urinalysis-calcium-calcium|systemic: clinical chemistry-triiodothyronine (t3)-triiodothyronine (t3), total|systemic: clinical chemistry-cholesterol-cholesterol|systemic: clinical chemistry-o-demethylase-o-demethylase|systemic: in life observation-body weight-body weight gain|systemic: organ weight-liver-absolute|systemic: organ weight-testes-relative to body weight|systemic: clinical chemistry-triiodothyronine (t3)-triiodothyronine (t3), free|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: organ weight-adrenal gland-absolute|systemic: in life observation-body weight-body weight|systemic: urinalysis-sodium-sodium|systemic: clinical chemistry-protein-protein|systemic: organ weight-liver-relative to body weight</t>
+  </si>
+  <si>
+    <t>organ weight|nonneoplastic histopathology|urinalysis|clinical chemistry|enzyme activity|body weight|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_5f7507c511d487b9d6b0a7220924711a</t>
+  </si>
+  <si>
+    <t>systemic: pathology microscopic-liver-adenoma|systemic: pathology microscopic-liver-adenoma/carcinoma combined|systemic: in life observation-food consumption-food efficiency|systemic: in life observation-body weight-body weight|systemic: pathology microscopic-liver-pigmentation|systemic: organ weight-liver-relative to body weight|systemic: in life observation-body weight-body weight gain|systemic: pathology microscopic-lung-hyperplasia|systemic: pathology microscopic-liver-cellular alteration|systemic: organ weight-liver-absolute|systemic: pathology microscopic-liver-necrosis|systemic: pathology gross-lung-nodule(s)|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos</t>
+  </si>
+  <si>
+    <t>cancer|food and/or water consumption|body weight|nonneoplastic histopathology|organ weight|gross pathology|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_1524cb45119f2c6460403c8268603612</t>
+  </si>
+  <si>
+    <t>systemic: pathology microscopic-liver-clear cell focus|systemic: pathology microscopic-liver-[other]|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: pathology gross-liver-discolored|systemic: organ weight-liver-relative to body weight|systemic: pathology microscopic-liver-necrosis|systemic: organ weight-liver-absolute</t>
+  </si>
+  <si>
+    <t>nonneoplastic histopathology|multiple|gross pathology|organ weight</t>
+  </si>
+  <si>
+    <t>ToxValhc_d40315f2046925fb1092fd7b0dbcbf66</t>
+  </si>
+  <si>
+    <t>systemic: pathology microscopic-liver-fibrosis|systemic: pathology microscopic-liver-inflammation|systemic: organ weight-liver-absolute|systemic: in life observation-body weight-body weight gain|systemic: clinical chemistry-globulins-globulins|systemic: in life observation-body weight-body weight|systemic: clinical chemistry-albumin-albumin|systemic: clinical chemistry-protein-protein|systemic: pathology microscopic-liver-necrosis|systemic: clinical chemistry-cytochrome p450, nos-cytochrome p450, nos|systemic: pathology microscopic-liver-hypertrophy|systemic: clinical chemistry-cholesterol-cholesterol|systemic: organ weight-liver-relative to body weight|systemic: pathology microscopic-liver-pigmentation</t>
+  </si>
+  <si>
+    <t>nonneoplastic histopathology|organ weight|body weight|clinical chemistry|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_6356a0f512cbda8aecfadc2b69fbc765</t>
+  </si>
+  <si>
+    <t>thyroid gland: behaviour (functional findings)|body weight and weight gain|clinical biochemistry|clinical signs|food consumption and compound intake|gross pathology|haematology|histopathology: neoplastic|histopathology: non-neoplastic|mortality</t>
+  </si>
+  <si>
+    <t>body weight|clinical chemistry|clinical signs|food and/or water consumption|gross pathology|hematology|cancer|nonneoplastic histopathology|mortality/survival|multiple</t>
+  </si>
+  <si>
+    <t>ToxValhc_ac61a8d40fc2da3d87437ce7ccd0e3ef</t>
+  </si>
+  <si>
+    <t>Decreased body weight and body weight gains in both doses increased liver weights at high dose</t>
+  </si>
+  <si>
+    <t>ToxValhc_997f12c5c483381622728002901fe33f</t>
+  </si>
+  <si>
+    <t>Increased incidence of hepatocellular changes including fatty change and vacuolation (M) increased susceptibility to stress factors (F)</t>
+  </si>
+  <si>
+    <t>ToxValhc_1dc46293afb695d30caabc87a9f43e94</t>
+  </si>
+  <si>
+    <t>ToxValhc_6bb9629342b89c553bd4b034f90eb630</t>
+  </si>
+  <si>
+    <t>kidney, spleen, liver, and bone marrow toxicity</t>
+  </si>
+  <si>
+    <t>ToxValhc_74e06b7be697409c89e7112ff605e473</t>
+  </si>
+  <si>
+    <t>ToxValhc_317cff8e3308516f77fa610bc0490545</t>
+  </si>
+  <si>
+    <t>ToxValhc_cebc3ff27e5179d394cabf59b2132663</t>
+  </si>
+  <si>
+    <t>ToxValhc_893b4c680ecd8e417b5947989ab9878d</t>
   </si>
 </sst>
 </file>
@@ -2392,10 +3082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="E392" sqref="E392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6760,6 +7450,1432 @@
         <v>6</v>
       </c>
     </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>664</v>
+      </c>
+      <c r="B292" t="s">
+        <v>665</v>
+      </c>
+      <c r="C292" t="s">
+        <v>135</v>
+      </c>
+      <c r="D292" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>667</v>
+      </c>
+      <c r="B293" t="s">
+        <v>668</v>
+      </c>
+      <c r="C293" t="s">
+        <v>135</v>
+      </c>
+      <c r="D293" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>670</v>
+      </c>
+      <c r="B294" t="s">
+        <v>671</v>
+      </c>
+      <c r="C294" t="s">
+        <v>131</v>
+      </c>
+      <c r="D294" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>673</v>
+      </c>
+      <c r="B295" t="s">
+        <v>674</v>
+      </c>
+      <c r="C295" t="s">
+        <v>135</v>
+      </c>
+      <c r="D295" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>675</v>
+      </c>
+      <c r="B296" t="s">
+        <v>676</v>
+      </c>
+      <c r="C296" t="s">
+        <v>131</v>
+      </c>
+      <c r="D296" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>677</v>
+      </c>
+      <c r="B297" t="s">
+        <v>678</v>
+      </c>
+      <c r="C297" t="s">
+        <v>142</v>
+      </c>
+      <c r="D297" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>679</v>
+      </c>
+      <c r="B298" t="s">
+        <v>680</v>
+      </c>
+      <c r="C298" t="s">
+        <v>131</v>
+      </c>
+      <c r="D298" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>681</v>
+      </c>
+      <c r="B299" t="s">
+        <v>682</v>
+      </c>
+      <c r="C299" t="s">
+        <v>131</v>
+      </c>
+      <c r="D299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>683</v>
+      </c>
+      <c r="B300" t="s">
+        <v>684</v>
+      </c>
+      <c r="C300" t="s">
+        <v>166</v>
+      </c>
+      <c r="D300" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>685</v>
+      </c>
+      <c r="B301" t="s">
+        <v>686</v>
+      </c>
+      <c r="C301" t="s">
+        <v>166</v>
+      </c>
+      <c r="D301" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>688</v>
+      </c>
+      <c r="B302" t="s">
+        <v>689</v>
+      </c>
+      <c r="C302" t="s">
+        <v>131</v>
+      </c>
+      <c r="D302" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>691</v>
+      </c>
+      <c r="B303" t="s">
+        <v>692</v>
+      </c>
+      <c r="C303" t="s">
+        <v>206</v>
+      </c>
+      <c r="D303" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>693</v>
+      </c>
+      <c r="B304" t="s">
+        <v>694</v>
+      </c>
+      <c r="C304" t="s">
+        <v>131</v>
+      </c>
+      <c r="D304" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>695</v>
+      </c>
+      <c r="B305" t="s">
+        <v>696</v>
+      </c>
+      <c r="C305" t="s">
+        <v>131</v>
+      </c>
+      <c r="D305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>697</v>
+      </c>
+      <c r="B306" t="s">
+        <v>698</v>
+      </c>
+      <c r="C306" t="s">
+        <v>142</v>
+      </c>
+      <c r="D306" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>699</v>
+      </c>
+      <c r="B307" t="s">
+        <v>700</v>
+      </c>
+      <c r="C307" t="s">
+        <v>135</v>
+      </c>
+      <c r="D307" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>702</v>
+      </c>
+      <c r="B308" t="s">
+        <v>372</v>
+      </c>
+      <c r="C308" t="s">
+        <v>131</v>
+      </c>
+      <c r="D308" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>703</v>
+      </c>
+      <c r="B309" t="s">
+        <v>372</v>
+      </c>
+      <c r="C309" t="s">
+        <v>206</v>
+      </c>
+      <c r="D309" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>704</v>
+      </c>
+      <c r="B310" t="s">
+        <v>372</v>
+      </c>
+      <c r="C310" t="s">
+        <v>135</v>
+      </c>
+      <c r="D310" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>705</v>
+      </c>
+      <c r="B311" t="s">
+        <v>372</v>
+      </c>
+      <c r="C311" t="s">
+        <v>142</v>
+      </c>
+      <c r="D311" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>706</v>
+      </c>
+      <c r="B312" t="s">
+        <v>707</v>
+      </c>
+      <c r="C312" t="s">
+        <v>131</v>
+      </c>
+      <c r="D312" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>708</v>
+      </c>
+      <c r="B313" t="s">
+        <v>709</v>
+      </c>
+      <c r="C313" t="s">
+        <v>131</v>
+      </c>
+      <c r="D313" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>710</v>
+      </c>
+      <c r="B314" t="s">
+        <v>711</v>
+      </c>
+      <c r="C314" t="s">
+        <v>131</v>
+      </c>
+      <c r="D314" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>712</v>
+      </c>
+      <c r="B315" t="s">
+        <v>713</v>
+      </c>
+      <c r="C315" t="s">
+        <v>288</v>
+      </c>
+      <c r="D315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>714</v>
+      </c>
+      <c r="B316" t="s">
+        <v>715</v>
+      </c>
+      <c r="C316" t="s">
+        <v>131</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>716</v>
+      </c>
+      <c r="B317" t="s">
+        <v>717</v>
+      </c>
+      <c r="C317" t="s">
+        <v>131</v>
+      </c>
+      <c r="D317" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>718</v>
+      </c>
+      <c r="B318" t="s">
+        <v>719</v>
+      </c>
+      <c r="C318" t="s">
+        <v>131</v>
+      </c>
+      <c r="D318" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>720</v>
+      </c>
+      <c r="B319" t="s">
+        <v>721</v>
+      </c>
+      <c r="C319" t="s">
+        <v>131</v>
+      </c>
+      <c r="D319" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>722</v>
+      </c>
+      <c r="B320" t="s">
+        <v>723</v>
+      </c>
+      <c r="C320" t="s">
+        <v>131</v>
+      </c>
+      <c r="D320" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>724</v>
+      </c>
+      <c r="B321" t="s">
+        <v>725</v>
+      </c>
+      <c r="C321" t="s">
+        <v>131</v>
+      </c>
+      <c r="D321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>726</v>
+      </c>
+      <c r="B322" t="s">
+        <v>727</v>
+      </c>
+      <c r="C322" t="s">
+        <v>206</v>
+      </c>
+      <c r="D322" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>729</v>
+      </c>
+      <c r="B323" t="s">
+        <v>730</v>
+      </c>
+      <c r="C323" t="s">
+        <v>131</v>
+      </c>
+      <c r="D323" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>731</v>
+      </c>
+      <c r="B324" t="s">
+        <v>732</v>
+      </c>
+      <c r="C324" t="s">
+        <v>131</v>
+      </c>
+      <c r="D324" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>733</v>
+      </c>
+      <c r="B325" t="s">
+        <v>734</v>
+      </c>
+      <c r="C325" t="s">
+        <v>131</v>
+      </c>
+      <c r="D325" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>735</v>
+      </c>
+      <c r="B326" t="s">
+        <v>736</v>
+      </c>
+      <c r="C326" t="s">
+        <v>131</v>
+      </c>
+      <c r="D326" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>737</v>
+      </c>
+      <c r="B327" t="s">
+        <v>738</v>
+      </c>
+      <c r="C327" t="s">
+        <v>142</v>
+      </c>
+      <c r="D327" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>739</v>
+      </c>
+      <c r="B328" t="s">
+        <v>740</v>
+      </c>
+      <c r="C328" t="s">
+        <v>131</v>
+      </c>
+      <c r="D328" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>741</v>
+      </c>
+      <c r="B329" t="s">
+        <v>742</v>
+      </c>
+      <c r="C329" t="s">
+        <v>131</v>
+      </c>
+      <c r="D329" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>743</v>
+      </c>
+      <c r="B330" t="s">
+        <v>744</v>
+      </c>
+      <c r="C330" t="s">
+        <v>131</v>
+      </c>
+      <c r="D330" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>745</v>
+      </c>
+      <c r="B331" t="s">
+        <v>746</v>
+      </c>
+      <c r="C331" t="s">
+        <v>131</v>
+      </c>
+      <c r="D331" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>747</v>
+      </c>
+      <c r="B332" t="s">
+        <v>748</v>
+      </c>
+      <c r="C332" t="s">
+        <v>131</v>
+      </c>
+      <c r="D332" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>749</v>
+      </c>
+      <c r="B333" t="s">
+        <v>750</v>
+      </c>
+      <c r="C333" t="s">
+        <v>131</v>
+      </c>
+      <c r="D333" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>751</v>
+      </c>
+      <c r="B334" t="s">
+        <v>752</v>
+      </c>
+      <c r="C334" t="s">
+        <v>142</v>
+      </c>
+      <c r="D334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>753</v>
+      </c>
+      <c r="B335" t="s">
+        <v>754</v>
+      </c>
+      <c r="C335" t="s">
+        <v>131</v>
+      </c>
+      <c r="D335" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>755</v>
+      </c>
+      <c r="B336" t="s">
+        <v>756</v>
+      </c>
+      <c r="C336" t="s">
+        <v>131</v>
+      </c>
+      <c r="D336" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>757</v>
+      </c>
+      <c r="B337" t="s">
+        <v>758</v>
+      </c>
+      <c r="C337" t="s">
+        <v>142</v>
+      </c>
+      <c r="D337" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>759</v>
+      </c>
+      <c r="B338" t="s">
+        <v>760</v>
+      </c>
+      <c r="C338" t="s">
+        <v>131</v>
+      </c>
+      <c r="D338" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>762</v>
+      </c>
+      <c r="B339" t="s">
+        <v>763</v>
+      </c>
+      <c r="C339" t="s">
+        <v>142</v>
+      </c>
+      <c r="D339" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>765</v>
+      </c>
+      <c r="B340" t="s">
+        <v>766</v>
+      </c>
+      <c r="C340" t="s">
+        <v>142</v>
+      </c>
+      <c r="D340" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>768</v>
+      </c>
+      <c r="B341" t="s">
+        <v>769</v>
+      </c>
+      <c r="C341" t="s">
+        <v>131</v>
+      </c>
+      <c r="D341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>770</v>
+      </c>
+      <c r="B342" t="s">
+        <v>771</v>
+      </c>
+      <c r="C342" t="s">
+        <v>131</v>
+      </c>
+      <c r="D342" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>772</v>
+      </c>
+      <c r="B343" t="s">
+        <v>773</v>
+      </c>
+      <c r="C343" t="s">
+        <v>131</v>
+      </c>
+      <c r="D343" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>774</v>
+      </c>
+      <c r="B344" t="s">
+        <v>775</v>
+      </c>
+      <c r="C344" t="s">
+        <v>131</v>
+      </c>
+      <c r="D344" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>776</v>
+      </c>
+      <c r="B345" t="s">
+        <v>777</v>
+      </c>
+      <c r="C345" t="s">
+        <v>131</v>
+      </c>
+      <c r="D345" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>778</v>
+      </c>
+      <c r="B346" t="s">
+        <v>779</v>
+      </c>
+      <c r="C346" t="s">
+        <v>131</v>
+      </c>
+      <c r="D346" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>780</v>
+      </c>
+      <c r="B347" t="s">
+        <v>781</v>
+      </c>
+      <c r="C347" t="s">
+        <v>131</v>
+      </c>
+      <c r="D347" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>782</v>
+      </c>
+      <c r="B348" t="s">
+        <v>783</v>
+      </c>
+      <c r="C348" t="s">
+        <v>131</v>
+      </c>
+      <c r="D348" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>784</v>
+      </c>
+      <c r="B349" t="s">
+        <v>785</v>
+      </c>
+      <c r="C349" t="s">
+        <v>131</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>786</v>
+      </c>
+      <c r="B350" t="s">
+        <v>787</v>
+      </c>
+      <c r="C350" t="s">
+        <v>131</v>
+      </c>
+      <c r="D350" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>788</v>
+      </c>
+      <c r="B351" t="s">
+        <v>789</v>
+      </c>
+      <c r="C351" t="s">
+        <v>142</v>
+      </c>
+      <c r="D351" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>790</v>
+      </c>
+      <c r="B352" t="s">
+        <v>791</v>
+      </c>
+      <c r="C352" t="s">
+        <v>142</v>
+      </c>
+      <c r="D352" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>792</v>
+      </c>
+      <c r="B353" t="s">
+        <v>793</v>
+      </c>
+      <c r="C353" t="s">
+        <v>142</v>
+      </c>
+      <c r="D353" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>794</v>
+      </c>
+      <c r="B354" t="s">
+        <v>795</v>
+      </c>
+      <c r="C354" t="s">
+        <v>131</v>
+      </c>
+      <c r="D354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>796</v>
+      </c>
+      <c r="B355" t="s">
+        <v>797</v>
+      </c>
+      <c r="C355" t="s">
+        <v>131</v>
+      </c>
+      <c r="D355" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>799</v>
+      </c>
+      <c r="B356" t="s">
+        <v>800</v>
+      </c>
+      <c r="C356" t="s">
+        <v>131</v>
+      </c>
+      <c r="D356" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>802</v>
+      </c>
+      <c r="B357" t="s">
+        <v>803</v>
+      </c>
+      <c r="C357" t="s">
+        <v>131</v>
+      </c>
+      <c r="D357" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>805</v>
+      </c>
+      <c r="B358" t="s">
+        <v>806</v>
+      </c>
+      <c r="C358" t="s">
+        <v>142</v>
+      </c>
+      <c r="D358" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>808</v>
+      </c>
+      <c r="B359" t="s">
+        <v>809</v>
+      </c>
+      <c r="C359" t="s">
+        <v>131</v>
+      </c>
+      <c r="D359" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>810</v>
+      </c>
+      <c r="B360" t="s">
+        <v>811</v>
+      </c>
+      <c r="C360" t="s">
+        <v>131</v>
+      </c>
+      <c r="D360" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>812</v>
+      </c>
+      <c r="B361" t="s">
+        <v>813</v>
+      </c>
+      <c r="C361" t="s">
+        <v>142</v>
+      </c>
+      <c r="D361" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>815</v>
+      </c>
+      <c r="B362" t="s">
+        <v>816</v>
+      </c>
+      <c r="C362" t="s">
+        <v>142</v>
+      </c>
+      <c r="D362" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>818</v>
+      </c>
+      <c r="B363" t="s">
+        <v>819</v>
+      </c>
+      <c r="C363" t="s">
+        <v>131</v>
+      </c>
+      <c r="D363" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>821</v>
+      </c>
+      <c r="B364" t="s">
+        <v>822</v>
+      </c>
+      <c r="C364" t="s">
+        <v>131</v>
+      </c>
+      <c r="D364" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>824</v>
+      </c>
+      <c r="B365" t="s">
+        <v>825</v>
+      </c>
+      <c r="C365" t="s">
+        <v>131</v>
+      </c>
+      <c r="D365" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>827</v>
+      </c>
+      <c r="B366" t="s">
+        <v>828</v>
+      </c>
+      <c r="C366" t="s">
+        <v>142</v>
+      </c>
+      <c r="D366" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>830</v>
+      </c>
+      <c r="B367" t="s">
+        <v>831</v>
+      </c>
+      <c r="C367" t="s">
+        <v>131</v>
+      </c>
+      <c r="D367" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>833</v>
+      </c>
+      <c r="B368" t="s">
+        <v>834</v>
+      </c>
+      <c r="C368" t="s">
+        <v>131</v>
+      </c>
+      <c r="D368" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>836</v>
+      </c>
+      <c r="B369" t="s">
+        <v>837</v>
+      </c>
+      <c r="C369" t="s">
+        <v>142</v>
+      </c>
+      <c r="D369" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>839</v>
+      </c>
+      <c r="B370" t="s">
+        <v>840</v>
+      </c>
+      <c r="C370" t="s">
+        <v>142</v>
+      </c>
+      <c r="D370" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>842</v>
+      </c>
+      <c r="B371" t="s">
+        <v>843</v>
+      </c>
+      <c r="C371" t="s">
+        <v>142</v>
+      </c>
+      <c r="D371" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>845</v>
+      </c>
+      <c r="B372" t="s">
+        <v>846</v>
+      </c>
+      <c r="C372" t="s">
+        <v>131</v>
+      </c>
+      <c r="D372" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>848</v>
+      </c>
+      <c r="B373" t="s">
+        <v>849</v>
+      </c>
+      <c r="C373" t="s">
+        <v>142</v>
+      </c>
+      <c r="D373" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>851</v>
+      </c>
+      <c r="B374" t="s">
+        <v>852</v>
+      </c>
+      <c r="C374" t="s">
+        <v>142</v>
+      </c>
+      <c r="D374" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>854</v>
+      </c>
+      <c r="B375" t="s">
+        <v>855</v>
+      </c>
+      <c r="C375" t="s">
+        <v>142</v>
+      </c>
+      <c r="D375" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>857</v>
+      </c>
+      <c r="B376" t="s">
+        <v>858</v>
+      </c>
+      <c r="C376" t="s">
+        <v>142</v>
+      </c>
+      <c r="D376" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>859</v>
+      </c>
+      <c r="B377" t="s">
+        <v>860</v>
+      </c>
+      <c r="C377" t="s">
+        <v>142</v>
+      </c>
+      <c r="D377" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>862</v>
+      </c>
+      <c r="B378" t="s">
+        <v>863</v>
+      </c>
+      <c r="C378" t="s">
+        <v>131</v>
+      </c>
+      <c r="D378" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>865</v>
+      </c>
+      <c r="B379" t="s">
+        <v>866</v>
+      </c>
+      <c r="C379" t="s">
+        <v>131</v>
+      </c>
+      <c r="D379" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>868</v>
+      </c>
+      <c r="B380" t="s">
+        <v>869</v>
+      </c>
+      <c r="C380" t="s">
+        <v>142</v>
+      </c>
+      <c r="D380" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>871</v>
+      </c>
+      <c r="B381" t="s">
+        <v>872</v>
+      </c>
+      <c r="C381" t="s">
+        <v>131</v>
+      </c>
+      <c r="D381" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>874</v>
+      </c>
+      <c r="B382" t="s">
+        <v>875</v>
+      </c>
+      <c r="C382" t="s">
+        <v>142</v>
+      </c>
+      <c r="D382" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>877</v>
+      </c>
+      <c r="B383" t="s">
+        <v>878</v>
+      </c>
+      <c r="C383" t="s">
+        <v>142</v>
+      </c>
+      <c r="D383" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>880</v>
+      </c>
+      <c r="B384" t="s">
+        <v>881</v>
+      </c>
+      <c r="C384" t="s">
+        <v>135</v>
+      </c>
+      <c r="D384" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>883</v>
+      </c>
+      <c r="B385" t="s">
+        <v>884</v>
+      </c>
+      <c r="C385" t="s">
+        <v>206</v>
+      </c>
+      <c r="D385" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>885</v>
+      </c>
+      <c r="B386" t="s">
+        <v>886</v>
+      </c>
+      <c r="C386" t="s">
+        <v>206</v>
+      </c>
+      <c r="D386" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>887</v>
+      </c>
+      <c r="B387" t="s">
+        <v>31</v>
+      </c>
+      <c r="C387" t="s">
+        <v>206</v>
+      </c>
+      <c r="D387" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>888</v>
+      </c>
+      <c r="B388" t="s">
+        <v>889</v>
+      </c>
+      <c r="C388" t="s">
+        <v>206</v>
+      </c>
+      <c r="D388" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>890</v>
+      </c>
+      <c r="B389" t="s">
+        <v>39</v>
+      </c>
+      <c r="C389" t="s">
+        <v>206</v>
+      </c>
+      <c r="D389" t="s">
+        <v>6</v>
+      </c>
+      <c r="E389" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>891</v>
+      </c>
+      <c r="B390" t="s">
+        <v>45</v>
+      </c>
+      <c r="C390" t="s">
+        <v>206</v>
+      </c>
+      <c r="D390" t="s">
+        <v>6</v>
+      </c>
+      <c r="E390" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>892</v>
+      </c>
+      <c r="B391" t="s">
+        <v>47</v>
+      </c>
+      <c r="C391" t="s">
+        <v>206</v>
+      </c>
+      <c r="D391" t="s">
+        <v>6</v>
+      </c>
+      <c r="E391" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>893</v>
+      </c>
+      <c r="B392" t="s">
+        <v>35</v>
+      </c>
+      <c r="C392" t="s">
+        <v>206</v>
+      </c>
+      <c r="D392" t="s">
+        <v>6</v>
+      </c>
+      <c r="E392" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E283" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
